--- a/indicadores/tablas/430102.xlsx
+++ b/indicadores/tablas/430102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -51,12 +51,6 @@
     <t xml:space="preserve">Salud</t>
   </si>
   <si>
-    <t xml:space="preserve">DIMENSIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disponibilidad</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONINDICADOR</t>
   </si>
   <si>
@@ -76,6 +70,18 @@
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular:  (Número total de años que una cohorte de niños recién nacidos llegaría a vivir si estuviera expuesta a lo largo de su vida a las tasas de mortalidad estimadas para cada año / Número total de niños de la cohorte)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPOIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en Observatorio Territorio Uruguay - OPP</t>
   </si>
 </sst>
 </file>
@@ -506,15 +512,15 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -531,6 +537,14 @@
       </c>
       <c r="B7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/indicadores/tablas/430102.xlsx
+++ b/indicadores/tablas/430102.xlsx
@@ -411,7 +411,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -481,7 +481,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/430102.xlsx
+++ b/indicadores/tablas/430102.xlsx
@@ -411,7 +411,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -481,7 +481,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/430102.xlsx
+++ b/indicadores/tablas/430102.xlsx
@@ -63,7 +63,7 @@
     <t xml:space="preserve">DEFINICIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">El indicador de esperanza de vida al nacer representa la duración media de la vida de hombres y mujeres, que integran una cohorte hipotética de nacimientos, sometidos en todas las edades a los riesgos de mortalidad del período en estudio. .</t>
+    <t xml:space="preserve">El indicador de esperanza de vida al nacer representa la duración media de la vida de hombres y mujeres, que integran una cohorte hipotética de nacimientos, sometidos en todas las edades a los riesgos de mortalidad del período en estudio.</t>
   </si>
   <si>
     <t xml:space="preserve">CÁLCULO</t>
@@ -81,7 +81,7 @@
     <t xml:space="preserve">CITA</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAD con base en Observatorio Territorio Uruguay - OPP</t>
+    <t xml:space="preserve">UMAD con base en Observatorio Territorio Uruguay - OPP a partir de estimaciones de INE.</t>
   </si>
 </sst>
 </file>

--- a/indicadores/tablas/430102.xlsx
+++ b/indicadores/tablas/430102.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Ficha técnica" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,22 +21,43 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
     <t xml:space="preserve">2014</t>
   </si>
   <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -45,49 +66,58 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">DERECHO</t>
+    <t xml:space="preserve">nomindicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza de vida al nacer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho</t>
   </si>
   <si>
     <t xml:space="preserve">Salud</t>
   </si>
   <si>
-    <t xml:space="preserve">CONINDICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza de vida al nacer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOMINDICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFINICIÓN</t>
+    <t xml:space="preserve">conindicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipoind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definicion</t>
   </si>
   <si>
     <t xml:space="preserve">El indicador de esperanza de vida al nacer representa la duración media de la vida de hombres y mujeres, que integran una cohorte hipotética de nacimientos, sometidos en todas las edades a los riesgos de mortalidad del período en estudio.</t>
   </si>
   <si>
-    <t xml:space="preserve">CÁLCULO</t>
+    <t xml:space="preserve">calculo</t>
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular:  (Número total de años que una cohorte de niños recién nacidos llegaría a vivir si estuviera expuesta a lo largo de su vida a las tasas de mortalidad estimadas para cada año / Número total de niños de la cohorte)</t>
   </si>
   <si>
-    <t xml:space="preserve">TIPOIND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMAD con base en Observatorio Territorio Uruguay - OPP a partir de estimaciones de INE.</t>
+    <t xml:space="preserve">observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en INE - Estimaciones y proyecciones de población (revisión 2013).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -406,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -426,7 +456,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>77.1</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="3">
@@ -434,7 +464,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>77.2</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="4">
@@ -442,7 +472,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>77.4</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="5">
@@ -450,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>77.5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -458,7 +488,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>77.7</v>
+        <v>77.9</v>
       </c>
     </row>
     <row r="7">
@@ -466,7 +496,63 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>77.9</v>
+        <v>77.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>77.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>77.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>76.9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>76.6</v>
       </c>
     </row>
   </sheetData>
@@ -476,75 +562,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/indicadores/tablas/430102.xlsx
+++ b/indicadores/tablas/430102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,6 +21,12 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023</t>
   </si>
   <si>
@@ -60,9 +66,6 @@
     <t xml:space="preserve">2011</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -103,6 +106,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sin observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
   </si>
   <si>
     <t xml:space="preserve">cita</t>
@@ -456,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>78.5</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>78.3</v>
+        <v>78.6</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>78.2</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +489,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>78</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +497,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>77.9</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>77.7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +513,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>77.5</v>
+        <v>77.9</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +521,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>77.4</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +537,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>77.1</v>
+        <v>77.4</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +545,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>76.9</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +553,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>76.8</v>
+        <v>77.1</v>
       </c>
     </row>
     <row r="14">
@@ -552,6 +561,22 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
+        <v>76.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
         <v>76.6</v>
       </c>
     </row>
@@ -571,82 +596,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
